--- a/RT_prediction/process_240919/20240817_dx-DEANS-AP+Hy_tR.xlsx
+++ b/RT_prediction/process_240919/20240817_dx-DEANS-AP+Hy_tR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fudan\Projects\2024\MultichannelR\Progress\build_package\MultichannelR\RT_prediction\process_240919\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BFAA8D-23A4-452F-B870-9EA176BEAE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CE821-3BBF-437B-A0A4-2F0D22E2AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AP_总表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Amine!$A$1:$A$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AP_总表!$A$1:$A$225</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hydroxyl!$A$1:$A$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hydroxyl!$A$1:$A$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5253,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16483,6 +16483,59 @@
         <v>2</v>
       </c>
       <c r="R211" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="25" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C212" s="25">
+        <v>10.66</v>
+      </c>
+      <c r="D212" s="25">
+        <v>10.63</v>
+      </c>
+      <c r="E212" s="25">
+        <v>10.6</v>
+      </c>
+      <c r="F212" s="25">
+        <v>10.63</v>
+      </c>
+      <c r="G212" s="25">
+        <v>10.6</v>
+      </c>
+      <c r="H212" s="25">
+        <v>10.56</v>
+      </c>
+      <c r="I212" s="25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J212" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="K212" s="25" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L212" s="25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N212" s="25" t="s">
+        <v>1475</v>
+      </c>
+      <c r="O212" s="25" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P212" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q212" s="25">
+        <v>2</v>
+      </c>
+      <c r="R212" s="25" t="s">
         <v>338</v>
       </c>
     </row>
@@ -28097,10 +28150,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31269,43 +31322,43 @@
         <v>1432</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C63" s="25">
-        <v>10.66</v>
+        <v>10.29</v>
       </c>
       <c r="D63" s="25">
-        <v>10.63</v>
+        <v>10.25</v>
       </c>
       <c r="E63" s="25">
-        <v>10.6</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="F63" s="25">
-        <v>10.63</v>
+        <v>10.25</v>
       </c>
       <c r="G63" s="25">
-        <v>10.6</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H63" s="25">
-        <v>10.56</v>
+        <v>10.16</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="L63" s="25" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="N63" s="25" t="s">
-        <v>1475</v>
+        <v>1207</v>
       </c>
       <c r="O63" s="25" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="P63" s="25">
         <v>2</v>
@@ -31319,55 +31372,55 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1525</v>
+        <v>52</v>
       </c>
       <c r="C64" s="25">
-        <v>10.29</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D64" s="25">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="E64" s="25">
-        <v>10.210000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F64" s="25">
-        <v>10.25</v>
+        <v>9.49</v>
       </c>
       <c r="G64" s="25">
-        <v>10.210000000000001</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H64" s="25">
-        <v>10.16</v>
+        <v>9.41</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="L64" s="25" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="N64" s="25" t="s">
-        <v>1207</v>
+        <v>1298</v>
       </c>
       <c r="O64" s="25" t="s">
-        <v>1480</v>
+        <v>1352</v>
       </c>
       <c r="P64" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" s="25" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -31375,43 +31428,43 @@
         <v>1431</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="25">
+        <v>9.61</v>
+      </c>
+      <c r="D65" s="25">
+        <v>9.57</v>
+      </c>
+      <c r="E65" s="25">
         <v>9.5299999999999994</v>
       </c>
-      <c r="D65" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="E65" s="25">
-        <v>9.4600000000000009</v>
-      </c>
       <c r="F65" s="25">
-        <v>9.49</v>
+        <v>9.56</v>
       </c>
       <c r="G65" s="25">
-        <v>9.4499999999999993</v>
+        <v>9.52</v>
       </c>
       <c r="H65" s="25">
-        <v>9.41</v>
+        <v>9.48</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="L65" s="25" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="N65" s="25" t="s">
-        <v>1298</v>
+        <v>1356</v>
       </c>
       <c r="O65" s="25" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="P65" s="25">
         <v>1</v>
@@ -31428,43 +31481,40 @@
         <v>1431</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="25">
-        <v>9.61</v>
+        <v>8.92</v>
       </c>
       <c r="D66" s="25">
-        <v>9.57</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E66" s="25">
-        <v>9.5299999999999994</v>
+        <v>8.82</v>
       </c>
       <c r="F66" s="25">
-        <v>9.56</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G66" s="25">
-        <v>9.52</v>
+        <v>8.82</v>
       </c>
       <c r="H66" s="25">
-        <v>9.48</v>
+        <v>8.77</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>1485</v>
-      </c>
-      <c r="L66" s="25" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="N66" s="25" t="s">
-        <v>1356</v>
+        <v>1489</v>
       </c>
       <c r="O66" s="25" t="s">
-        <v>1357</v>
+        <v>1490</v>
       </c>
       <c r="P66" s="25">
         <v>1</v>
@@ -31481,40 +31531,40 @@
         <v>1431</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="25">
-        <v>8.92</v>
+        <v>12.55</v>
       </c>
       <c r="D67" s="25">
-        <v>8.8800000000000008</v>
+        <v>12.55</v>
       </c>
       <c r="E67" s="25">
-        <v>8.82</v>
+        <v>12.54</v>
       </c>
       <c r="F67" s="25">
-        <v>8.8699999999999992</v>
+        <v>12.55</v>
       </c>
       <c r="G67" s="25">
-        <v>8.82</v>
+        <v>12.54</v>
       </c>
       <c r="H67" s="25">
-        <v>8.77</v>
+        <v>12.54</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>880</v>
+        <v>1251</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="N67" s="25" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="O67" s="25" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="P67" s="25">
         <v>1</v>
@@ -31531,40 +31581,40 @@
         <v>1431</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="25">
-        <v>12.55</v>
+        <v>7.46</v>
       </c>
       <c r="D68" s="25">
-        <v>12.55</v>
+        <v>7.39</v>
       </c>
       <c r="E68" s="25">
-        <v>12.54</v>
+        <v>7.32</v>
       </c>
       <c r="F68" s="25">
-        <v>12.55</v>
+        <v>7.39</v>
       </c>
       <c r="G68" s="25">
-        <v>12.54</v>
+        <v>7.32</v>
       </c>
       <c r="H68" s="25">
-        <v>12.54</v>
+        <v>7.25</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K68" s="25" t="s">
-        <v>1492</v>
+        <v>880</v>
+      </c>
+      <c r="M68" s="25">
+        <v>252379</v>
       </c>
       <c r="N68" s="25" t="s">
-        <v>1493</v>
+        <v>1217</v>
       </c>
       <c r="O68" s="25" t="s">
-        <v>1494</v>
+        <v>1218</v>
       </c>
       <c r="P68" s="25">
         <v>1</v>
@@ -31581,40 +31631,43 @@
         <v>1431</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" s="25">
-        <v>7.46</v>
+        <v>10.24</v>
       </c>
       <c r="D69" s="25">
-        <v>7.39</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="E69" s="25">
-        <v>7.32</v>
+        <v>10.19</v>
       </c>
       <c r="F69" s="25">
-        <v>7.39</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="G69" s="25">
-        <v>7.32</v>
+        <v>10.18</v>
       </c>
       <c r="H69" s="25">
-        <v>7.25</v>
+        <v>10.15</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="M69" s="25">
-        <v>252379</v>
+      <c r="K69" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L69" s="25" t="s">
+        <v>1498</v>
       </c>
       <c r="N69" s="25" t="s">
-        <v>1217</v>
+        <v>1499</v>
       </c>
       <c r="O69" s="25" t="s">
-        <v>1218</v>
+        <v>1500</v>
       </c>
       <c r="P69" s="25">
         <v>1</v>
@@ -31631,43 +31684,43 @@
         <v>1431</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="25">
-        <v>10.24</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D70" s="25">
-        <v>10.210000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="E70" s="25">
-        <v>10.19</v>
+        <v>10.07</v>
       </c>
       <c r="F70" s="25">
-        <v>10.210000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="G70" s="25">
-        <v>10.18</v>
+        <v>10.07</v>
       </c>
       <c r="H70" s="25">
-        <v>10.15</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="N70" s="25" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="O70" s="25" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="P70" s="25">
         <v>1</v>
@@ -31684,43 +31737,43 @@
         <v>1431</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="25">
-        <v>10.130000000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D71" s="25">
-        <v>10.11</v>
+        <v>9.67</v>
       </c>
       <c r="E71" s="25">
-        <v>10.07</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="F71" s="25">
-        <v>10.09</v>
+        <v>9.66</v>
       </c>
       <c r="G71" s="25">
-        <v>10.07</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="H71" s="25">
-        <v>10.039999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="O71" s="25" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="P71" s="25">
         <v>1</v>
@@ -31737,43 +31790,43 @@
         <v>1431</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="25">
-        <v>9.6999999999999993</v>
+        <v>9.39</v>
       </c>
       <c r="D72" s="25">
-        <v>9.67</v>
+        <v>9.36</v>
       </c>
       <c r="E72" s="25">
-        <v>9.6300000000000008</v>
+        <v>9.31</v>
       </c>
       <c r="F72" s="25">
-        <v>9.66</v>
+        <v>9.36</v>
       </c>
       <c r="G72" s="25">
-        <v>9.6199999999999992</v>
+        <v>9.31</v>
       </c>
       <c r="H72" s="25">
-        <v>9.58</v>
+        <v>9.27</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>880</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="N72" s="25" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="O72" s="25" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="P72" s="25">
         <v>1</v>
@@ -31790,43 +31843,40 @@
         <v>1431</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="25">
-        <v>9.39</v>
+        <v>8.25</v>
       </c>
       <c r="D73" s="25">
-        <v>9.36</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E73" s="25">
-        <v>9.31</v>
+        <v>8.17</v>
       </c>
       <c r="F73" s="25">
-        <v>9.36</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G73" s="25">
-        <v>9.31</v>
+        <v>8.16</v>
       </c>
       <c r="H73" s="25">
-        <v>9.27</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="K73" s="25" t="s">
-        <v>1512</v>
-      </c>
-      <c r="L73" s="25" t="s">
-        <v>1513</v>
+      <c r="M73" s="25">
+        <v>440707</v>
       </c>
       <c r="N73" s="25" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="O73" s="25" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="P73" s="25">
         <v>1</v>
@@ -31843,40 +31893,43 @@
         <v>1431</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="25">
-        <v>8.25</v>
+        <v>7.35</v>
       </c>
       <c r="D74" s="25">
-        <v>8.2200000000000006</v>
+        <v>7.28</v>
       </c>
       <c r="E74" s="25">
-        <v>8.17</v>
+        <v>7.22</v>
       </c>
       <c r="F74" s="25">
-        <v>8.1999999999999993</v>
+        <v>7.27</v>
       </c>
       <c r="G74" s="25">
-        <v>8.16</v>
+        <v>7.21</v>
       </c>
       <c r="H74" s="25">
-        <v>8.1199999999999992</v>
+        <v>7.14</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="M74" s="25">
-        <v>440707</v>
+      <c r="K74" s="25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>1521</v>
       </c>
       <c r="N74" s="25" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="O74" s="25" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="P74" s="25">
         <v>1</v>
@@ -31885,59 +31938,6 @@
         <v>1</v>
       </c>
       <c r="R74" s="25" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="25">
-        <v>7.35</v>
-      </c>
-      <c r="D75" s="25">
-        <v>7.28</v>
-      </c>
-      <c r="E75" s="25">
-        <v>7.22</v>
-      </c>
-      <c r="F75" s="25">
-        <v>7.27</v>
-      </c>
-      <c r="G75" s="25">
-        <v>7.21</v>
-      </c>
-      <c r="H75" s="25">
-        <v>7.14</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="K75" s="25" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L75" s="25" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N75" s="25" t="s">
-        <v>1522</v>
-      </c>
-      <c r="O75" s="25" t="s">
-        <v>1523</v>
-      </c>
-      <c r="P75" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="25">
-        <v>1</v>
-      </c>
-      <c r="R75" s="25" t="s">
         <v>412</v>
       </c>
     </row>

--- a/RT_prediction/process_240919/20240817_dx-DEANS-AP+Hy_tR.xlsx
+++ b/RT_prediction/process_240919/20240817_dx-DEANS-AP+Hy_tR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fudan\Projects\2024\MultichannelR\Progress\build_package\MultichannelR\RT_prediction\process_240919\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CE821-3BBF-437B-A0A4-2F0D22E2AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F31F32-FEC8-4035-A316-BC345C606CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="1533">
   <si>
     <t>1-Pentanol</t>
   </si>
@@ -4744,6 +4744,10 @@
   </si>
   <si>
     <t>HMDB0011638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMDB0000015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -28152,8 +28156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31869,6 +31873,9 @@
       <c r="J73" s="25" t="s">
         <v>880</v>
       </c>
+      <c r="K73" s="25" t="s">
+        <v>1532</v>
+      </c>
       <c r="M73" s="25">
         <v>440707</v>
       </c>
